--- a/excels/config/server/equip/server_equip_info.xlsx
+++ b/excels/config/server/equip/server_equip_info.xlsx
@@ -44,12 +44,12 @@
     <t>是否禁用</t>
   </si>
   <si>
+    <t>强化方案</t>
+  </si>
+  <si>
     <t>装备部位</t>
   </si>
   <si>
-    <t>装备等级</t>
-  </si>
-  <si>
     <t>装备图片路径</t>
   </si>
   <si>
@@ -77,12 +77,12 @@
     <t>is_forbidden</t>
   </si>
   <si>
+    <t>intensify_type</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
-    <t>class_level</t>
-  </si>
-  <si>
     <t>icon_path</t>
   </si>
   <si>
@@ -113,19 +113,19 @@
     <t>介绍</t>
   </si>
   <si>
-    <t>1|1|1|1</t>
-  </si>
-  <si>
-    <t>60|20|10|5</t>
+    <t>1|1|1|1|1</t>
+  </si>
+  <si>
+    <t>55|20|10|5|5</t>
   </si>
   <si>
     <t>weapon_attr_v1</t>
   </si>
   <si>
-    <t>2|3|3|3</t>
-  </si>
-  <si>
-    <t>50|30|15|5</t>
+    <t>2|3|3|3|3</t>
+  </si>
+  <si>
+    <t>45|30|15|5|5</t>
   </si>
   <si>
     <t>public_attr_v1,head_attr_v1</t>
@@ -1323,7 +1323,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H15" sqref="H15"/>
+      <selection pane="topRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.2" customHeight="1"/>
@@ -1331,12 +1331,12 @@
     <col min="1" max="1" width="14.5083333333333" style="3" customWidth="1"/>
     <col min="2" max="3" width="12.3416666666667" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="4" customWidth="1"/>
     <col min="7" max="7" width="18.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="22.625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="38.8416666666667" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="29.125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="37.375" style="5" customWidth="1"/>
     <col min="11" max="11" width="20.625" style="5" customWidth="1"/>
     <col min="12" max="12" width="27.175" style="5" customWidth="1"/>
     <col min="13" max="13" width="26.3416666666667" style="5" customWidth="1"/>
@@ -1433,11 +1433,11 @@
       <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13">
         <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>1</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11" t="s">
@@ -1511,11 +1511,11 @@
       <c r="D5" s="13">
         <v>0</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13">
         <v>2</v>
-      </c>
-      <c r="F5" s="13">
-        <v>1</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="11" t="s">
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
         <v>3</v>
-      </c>
-      <c r="F6" s="11">
-        <v>1</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="s">
@@ -1589,11 +1589,11 @@
       <c r="D7" s="13">
         <v>0</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13">
         <v>4</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="11" t="s">
@@ -1629,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
         <v>5</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
@@ -1844,18 +1844,6 @@
   <autoFilter ref="A1:M8">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D7">
     <cfRule type="colorScale" priority="38">
       <colorScale>
@@ -1880,8 +1868,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D1048576">
-    <cfRule type="colorScale" priority="611">
+  <conditionalFormatting sqref="D1:E2 D4:D6">
+    <cfRule type="colorScale" priority="249">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1892,8 +1880,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D2 D4:D6">
-    <cfRule type="colorScale" priority="249">
+  <conditionalFormatting sqref="D3:E3 E4:E8">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:E1048576">
+    <cfRule type="colorScale" priority="611">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/excels/config/server/equip/server_equip_info.xlsx
+++ b/excels/config/server/equip/server_equip_info.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" tabRatio="779"/>
+    <workbookView windowWidth="22185" windowHeight="10155" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="server_equip_info" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">server_equip_info!$A$1:$M$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">server_equip_info!$A$1:$L$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>装备key</t>
   </si>
@@ -44,9 +44,6 @@
     <t>是否禁用</t>
   </si>
   <si>
-    <t>强化方案</t>
-  </si>
-  <si>
     <t>装备部位</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
   </si>
   <si>
     <t>is_forbidden</t>
-  </si>
-  <si>
-    <t>intensify_type</t>
   </si>
   <si>
     <t>type</t>
@@ -1318,12 +1312,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F4" sqref="F4"/>
+      <selection pane="topRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.2" customHeight="1"/>
@@ -1331,18 +1325,17 @@
     <col min="1" max="1" width="14.5083333333333" style="3" customWidth="1"/>
     <col min="2" max="3" width="12.3416666666667" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="29.125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="37.375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="20.625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="27.175" style="5" customWidth="1"/>
-    <col min="13" max="13" width="26.3416666666667" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="29.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="37.375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="27.175" style="5" customWidth="1"/>
+    <col min="12" max="12" width="26.3416666666667" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:12">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1379,95 +1372,86 @@
       <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A2" s="8" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:13">
-      <c r="A2" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="9" t="s">
+    </row>
+    <row r="3" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13">
+      <c r="E3" s="13">
         <v>0</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="H3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="K3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="11" t="s">
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="B4" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="C4" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
@@ -1475,183 +1459,168 @@
       <c r="E4" s="11">
         <v>1</v>
       </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="H4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="K4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13">
         <v>0</v>
       </c>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="E5" s="13">
         <v>2</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="H5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="K5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="C6" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="11">
         <v>0</v>
       </c>
       <c r="E6" s="11">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11">
         <v>3</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="H6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="K6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>43</v>
-      </c>
       <c r="C7" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="13">
         <v>0</v>
       </c>
-      <c r="E7" s="11">
-        <v>1</v>
-      </c>
-      <c r="F7" s="13">
+      <c r="E7" s="13">
         <v>4</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="H7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="K7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="C8" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="11">
         <v>0</v>
       </c>
       <c r="E8" s="11">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11">
         <v>5</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="H8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="K8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="22.5" customHeight="1"/>
@@ -1680,170 +1649,182 @@
     <row r="32" customFormat="1" customHeight="1"/>
     <row r="33" customFormat="1" customHeight="1"/>
     <row r="34" customFormat="1" customHeight="1"/>
-    <row r="35" customHeight="1" spans="8:13">
+    <row r="35" customHeight="1" spans="7:12">
+      <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35"/>
-    </row>
-    <row r="36" customHeight="1" spans="8:13">
+      <c r="L35"/>
+    </row>
+    <row r="36" customHeight="1" spans="7:12">
+      <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36"/>
-    </row>
-    <row r="37" customHeight="1" spans="8:13">
+      <c r="L36"/>
+    </row>
+    <row r="37" customHeight="1" spans="7:12">
+      <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37"/>
-    </row>
-    <row r="38" customHeight="1" spans="8:13">
+      <c r="L37"/>
+    </row>
+    <row r="38" customHeight="1" spans="7:12">
+      <c r="G38" s="16"/>
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38"/>
-    </row>
-    <row r="39" customHeight="1" spans="8:13">
+      <c r="L38"/>
+    </row>
+    <row r="39" customHeight="1" spans="7:12">
+      <c r="G39" s="16"/>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39"/>
-    </row>
-    <row r="40" customHeight="1" spans="8:13">
+      <c r="L39"/>
+    </row>
+    <row r="40" customHeight="1" spans="7:12">
+      <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
       <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40"/>
-    </row>
-    <row r="41" customHeight="1" spans="8:13">
+      <c r="L40"/>
+    </row>
+    <row r="41" customHeight="1" spans="7:12">
+      <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
       <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41"/>
-    </row>
-    <row r="42" customHeight="1" spans="8:13">
+      <c r="L41"/>
+    </row>
+    <row r="42" customHeight="1" spans="7:12">
+      <c r="G42" s="16"/>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
       <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42"/>
-    </row>
-    <row r="43" customHeight="1" spans="8:13">
+      <c r="L42"/>
+    </row>
+    <row r="43" customHeight="1" spans="7:12">
+      <c r="G43" s="16"/>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
       <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43"/>
-    </row>
-    <row r="44" customHeight="1" spans="8:13">
+      <c r="L43"/>
+    </row>
+    <row r="44" customHeight="1" spans="7:12">
+      <c r="G44" s="16"/>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44"/>
-    </row>
-    <row r="45" customHeight="1" spans="8:13">
+      <c r="L44"/>
+    </row>
+    <row r="45" customHeight="1" spans="7:12">
+      <c r="G45" s="16"/>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45"/>
-    </row>
-    <row r="46" customHeight="1" spans="8:13">
+      <c r="L45"/>
+    </row>
+    <row r="46" customHeight="1" spans="7:12">
+      <c r="G46" s="16"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
       <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46"/>
-    </row>
-    <row r="47" customHeight="1" spans="8:13">
+      <c r="L46"/>
+    </row>
+    <row r="47" customHeight="1" spans="7:12">
+      <c r="G47" s="16"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
       <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47"/>
-    </row>
-    <row r="48" customHeight="1" spans="8:13">
+      <c r="L47"/>
+    </row>
+    <row r="48" customHeight="1" spans="7:12">
+      <c r="G48" s="16"/>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
       <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48"/>
-    </row>
-    <row r="49" customHeight="1" spans="8:13">
+      <c r="L48"/>
+    </row>
+    <row r="49" customHeight="1" spans="7:12">
+      <c r="G49" s="16"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
       <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49"/>
-    </row>
-    <row r="50" customHeight="1" spans="8:13">
+      <c r="L49"/>
+    </row>
+    <row r="50" customHeight="1" spans="7:12">
+      <c r="G50" s="16"/>
       <c r="H50" s="16"/>
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
       <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50"/>
-    </row>
-    <row r="51" customHeight="1" spans="8:13">
+      <c r="L50"/>
+    </row>
+    <row r="51" customHeight="1" spans="7:12">
+      <c r="G51" s="16"/>
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
       <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51"/>
-    </row>
-    <row r="52" customHeight="1" spans="8:13">
+      <c r="L51"/>
+    </row>
+    <row r="52" customHeight="1" spans="7:12">
+      <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
       <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52"/>
-    </row>
-    <row r="53" customHeight="1" spans="8:13">
+      <c r="L52"/>
+    </row>
+    <row r="53" customHeight="1" spans="7:12">
+      <c r="G53" s="16"/>
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
       <c r="J53" s="16"/>
       <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53"/>
-    </row>
-    <row r="54" customHeight="1" spans="8:13">
+      <c r="L53"/>
+    </row>
+    <row r="54" customHeight="1" spans="7:12">
+      <c r="G54" s="16"/>
       <c r="H54" s="16"/>
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
       <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54"/>
+      <c r="L54"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M8">
+  <autoFilter ref="A1:L8">
     <extLst/>
   </autoFilter>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D7">
     <cfRule type="colorScale" priority="38">
       <colorScale>
@@ -1868,8 +1849,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:E2 D4:D6">
-    <cfRule type="colorScale" priority="249">
+  <conditionalFormatting sqref="D35:D1048576">
+    <cfRule type="colorScale" priority="611">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1880,20 +1861,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:E3 E4:E8">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:E1048576">
-    <cfRule type="colorScale" priority="611">
+  <conditionalFormatting sqref="D1:D2 D4:D6">
+    <cfRule type="colorScale" priority="249">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
